--- a/post1.xlsx
+++ b/post1.xlsx
@@ -461,23 +461,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45801.15593555981</v>
+        <v>45801.54759903397</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Free Talk Friday!', "Star Wars Battlefront 2 has now BROKEN it's all-time players peak on Steam", "Rockstar hired a PR firm to stir outrage when launching GTA in the '90s, targeting right wing newspapers to ensure moral backlash. The negative press made the game controversial and therefore popular, driving it to early success."]</t>
+          <t>['Self Promotion Saturday! Small streamer? Just getting started? Tell us about it here!', "Star Wars Battlefront 2 has now BROKEN it's all-time players peak on Steam", "Rockstar hired a PR firm to stir outrage when launching GTA in the '90s, targeting right wing newspapers to ensure moral backlash. The negative press made the game controversial and therefore popular, driving it to early success."]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Whoa! Free Talk Friday dropping some major gaming news. Guess what? Star Wars Battlefront 2 just smashed its all-time player peak on Steam! Seriously, that's huge.
-But hold on, there's another interesting story. Remember when GTA first dropped in the '90s? Rockstar actually hired a PR firm to *create* controversy. They targeted right-wing newspapers, aiming for moral outrage. Wild, right? 
-Turns out, all that negative press actually fueled the fire and made the game even more talked about, leading to massive early success. Talk about a calculated move! What do you guys think about these stories? Let me know in the comments!</t>
+          <t>Hey gamers! Big news dropping – Star Wars Battlefront 2 just hit a brand new peak on Steam! That's awesome, right?
+And speaking of big moves, did you know Rockstar actually *planned* controversy when they launched GTA back in the day? They hired a PR firm to get negative press, specifically targeting certain newspapers. Wild, huh? 
+Turns out, that moral backlash actually fueled the game's popularity and helped it blow up. It just goes to show, sometimes a little bit of buzz – even the negative kind – can be a game-changer!
+P.S. Small streamers and new to the scene? We wanna hear from you! Drop a comment below and tell us about your journey. Let</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Gaming News': 15, 'PR Controversy': 20, 'Reaction/Outro': 10}</t>
+          <t>{'Steam Peak': 15, 'GTA Controversy': 20, 'Moral Backlash': 15, 'Streamer Callout': 10}</t>
         </is>
       </c>
     </row>
